--- a/reductions.xlsx
+++ b/reductions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/506594a149b35854/Desktop/Development Projects/ISO 9001 Audit Time Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC10485E5118603A5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61A907C1-BA3E-4E41-B2C0-6BF5027E1489}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC10485E5118603A5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F82A5D-8B63-4D9E-81B2-FC74CC9AD8B8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>

--- a/reductions.xlsx
+++ b/reductions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/506594a149b35854/Desktop/Development Projects/ISO 9001 Audit Time Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC10485E5118603A5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F82A5D-8B63-4D9E-81B2-FC74CC9AD8B8}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC10485E5118603A5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85056D83-2C32-4240-9695-834EA98A5297}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Client is not "design responsible" or other standard elements are notcovered in the scope</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>No further reductions</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,11 +135,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -145,6 +159,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -431,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -446,7 +463,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -457,14 +474,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -472,18 +489,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
@@ -494,18 +511,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -516,27 +533,38 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B8" name="Exclusions"/>
-    <protectedRange sqref="B2:B7" name="Exclusions_1"/>
+    <protectedRange sqref="B9" name="Exclusions"/>
+    <protectedRange sqref="B3:B8" name="Exclusions_1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
